--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_8_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_8_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.530422848148505e-16</v>
+        <v>2.716141956269496e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.62210982689257</v>
+        <v>38.42761959372402</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.83700053066186, 51.40721912312328]</t>
+          <t>[30.01237105767916, 46.842868129768874]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4654476241970418, 1.8679740102425804]</t>
+          <t>[1.4277107755052727, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.19247323036716</v>
+        <v>61.50226971255542</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.138099803171826, 64.24684665756249]</t>
+          <t>[56.30142024965728, 66.70311917545357]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.65643643643651</v>
+        <v>16.59765765765772</v>
       </c>
       <c r="X2" t="n">
-        <v>15.93027027027034</v>
+        <v>15.73837837837844</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.38260260260268</v>
+        <v>17.456936936937</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.530422848148505e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.4671007500688641</v>
-      </c>
+        <v>2.716141956269496e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.07650975871941</v>
+        <v>43.61919033858609</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.882524214706905, 51.270495302731916]</t>
+          <t>[36.536985727742895, 50.70139494942928]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.264184431174272</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.4654476241970409]</t>
+          <t>[1.3019212798660398, 1.654131867655888]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.91911681029187</v>
+        <v>56.15420970236357</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.297285839536535, 63.5409477810472]</t>
+          <t>[51.64272472541291, 60.665694679314235]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.89309309309314</v>
+        <v>17.19955955955962</v>
       </c>
       <c r="X3" t="n">
-        <v>17.17557557557562</v>
+        <v>16.56920920920926</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.61061061061066</v>
+        <v>17.82990990990997</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_8_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_8_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.716141956269496e-16</v>
+        <v>2.749778389164475e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>38.42761959372402</v>
+        <v>45.36726600785153</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.01237105767916, 46.842868129768874]</t>
+          <t>[37.50563709982042, 53.228894915882634]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.666710817219811</v>
+        <v>1.515763422452732</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4277107755052727, 1.9057108589343494]</t>
+          <t>[1.3270791789938858, 1.7044476659115784]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.50226971255542</v>
+        <v>62.07939473977215</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.30142024965728, 66.70311917545357]</t>
+          <t>[56.990214701976896, 67.1685747775674]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.59765765765772</v>
+        <v>17.00378378378383</v>
       </c>
       <c r="X2" t="n">
-        <v>15.73837837837844</v>
+        <v>16.33081081081086</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.456936936937</v>
+        <v>17.67675675675681</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.716141956269496e-16</v>
+        <v>2.749778389164475e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.61919033858609</v>
+        <v>42.88608389418833</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.536985727742895, 50.70139494942928]</t>
+          <t>[33.98020148393206, 51.7919663044446]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.478026573760964</v>
+        <v>1.050342288587579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3019212798660398, 1.654131867655888]</t>
+          <t>[0.8490790955648091, 1.2516054816103495]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>56.15420970236357</v>
+        <v>61.43653622157632</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.64272472541291, 60.665694679314235]</t>
+          <t>[56.76598512866366, 66.10708731448898]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19955955955962</v>
+        <v>18.63047047047052</v>
       </c>
       <c r="X3" t="n">
-        <v>16.56920920920926</v>
+        <v>17.91391391391396</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.82990990990997</v>
+        <v>19.34702702702708</v>
       </c>
     </row>
   </sheetData>
